--- a/Sistema tablas.xlsx
+++ b/Sistema tablas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="339">
   <si>
     <t>Alert</t>
   </si>
@@ -718,13 +718,328 @@
   </si>
   <si>
     <t>En castellano singular</t>
+  </si>
+  <si>
+    <t>BankBranche</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>CreditSubject</t>
+  </si>
+  <si>
+    <t>Disbursement</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>ProjectAlert</t>
+  </si>
+  <si>
+    <t>ProjectAnnexe</t>
+  </si>
+  <si>
+    <t>ProjectApplicant</t>
+  </si>
+  <si>
+    <t>ProjectMovement</t>
+  </si>
+  <si>
+    <t>ProjectRefinancing</t>
+  </si>
+  <si>
+    <t>bank_id</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>emial</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>previus_value</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>bank_branche_id</t>
+  </si>
+  <si>
+    <t>date_shipping_bank</t>
+  </si>
+  <si>
+    <t>bank_response_date</t>
+  </si>
+  <si>
+    <t>credit_subject</t>
+  </si>
+  <si>
+    <t>nro</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>entry_date</t>
+  </si>
+  <si>
+    <t>internal_number</t>
+  </si>
+  <si>
+    <t>cfi_number</t>
+  </si>
+  <si>
+    <t>creditLine_id</t>
+  </si>
+  <si>
+    <t>state_id</t>
+  </si>
+  <si>
+    <t>sector_id</t>
+  </si>
+  <si>
+    <t>applicnt</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>project_address</t>
+  </si>
+  <si>
+    <t>legal address</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>ciuu</t>
+  </si>
+  <si>
+    <t>inuep</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>total_inversion</t>
+  </si>
+  <si>
+    <t>done_investment</t>
+  </si>
+  <si>
+    <t>investment_to_make_ct</t>
+  </si>
+  <si>
+    <t>investment_to_make_af</t>
+  </si>
+  <si>
+    <t>legalFigure_id</t>
+  </si>
+  <si>
+    <t>periodicity_id</t>
+  </si>
+  <si>
+    <t>destinationCredit_id</t>
+  </si>
+  <si>
+    <t>refinanced</t>
+  </si>
+  <si>
+    <t>grace_period</t>
+  </si>
+  <si>
+    <t>amortization_period</t>
+  </si>
+  <si>
+    <t>cant_disbursement</t>
+  </si>
+  <si>
+    <t>guarantie_id</t>
+  </si>
+  <si>
+    <t>guarentie_description</t>
+  </si>
+  <si>
+    <t>bank_expiration_date</t>
+  </si>
+  <si>
+    <t>uep_aproved_date</t>
+  </si>
+  <si>
+    <t>date_shipping_cfi</t>
+  </si>
+  <si>
+    <t>cfi_approved_date</t>
+  </si>
+  <si>
+    <t>tramdispo_date</t>
+  </si>
+  <si>
+    <t>comunicatran_date</t>
+  </si>
+  <si>
+    <t>disbursement_date</t>
+  </si>
+  <si>
+    <t>effective_date</t>
+  </si>
+  <si>
+    <t>desisted_date</t>
+  </si>
+  <si>
+    <t>judicial_date</t>
+  </si>
+  <si>
+    <t>cancelled_date</t>
+  </si>
+  <si>
+    <t>archived_date</t>
+  </si>
+  <si>
+    <t>lat_movement_date</t>
+  </si>
+  <si>
+    <t>observations</t>
+  </si>
+  <si>
+    <t>alert_id</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>name_last_name</t>
+  </si>
+  <si>
+    <t>date_birth</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>cuit</t>
+  </si>
+  <si>
+    <t>legal_address</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>civil_state_id</t>
+  </si>
+  <si>
+    <t>name_last_name_partner</t>
+  </si>
+  <si>
+    <t>dni_partner</t>
+  </si>
+  <si>
+    <t>phone_partner</t>
+  </si>
+  <si>
+    <t>cuit_partner</t>
+  </si>
+  <si>
+    <t>date_birth_partner</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>refinancing_amount</t>
+  </si>
+  <si>
+    <t>BrankBranche</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>CONTROLLER</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>DESTROY</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>REQUEST</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>MODELS</t>
+  </si>
+  <si>
+    <t>ROUTERS</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>OBSERVER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +1078,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -784,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,6 +1163,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U310"/>
+  <dimension ref="A2:Z311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1153,10 +1501,19 @@
     <col min="15" max="15" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.85546875" style="5" customWidth="1"/>
     <col min="17" max="17" width="37.140625" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.28515625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>36</v>
       </c>
@@ -1205,8 +1562,38 @@
       <c r="P2" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1252,8 +1639,38 @@
       <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1277,8 +1694,38 @@
         <v>32</v>
       </c>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1302,8 +1749,35 @@
         <v>33</v>
       </c>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1327,8 +1801,35 @@
         <v>34</v>
       </c>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1352,8 +1853,33 @@
         <v>35</v>
       </c>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1375,8 +1901,33 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1393,8 +1944,28 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1409,1038 +1980,1256 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="Q11" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11" t="s">
+      <c r="O13" s="11"/>
+      <c r="P13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-    </row>
-    <row r="13" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q14" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q15" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q16" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+    </row>
+    <row r="17" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q17" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q18" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="S18" s="9"/>
+      <c r="U18" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q19" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="U19" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q20" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="U20" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q21" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="U21" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q22" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="U22" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q23" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="U23" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q24" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="U24" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q25" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="5" t="s">
+      <c r="U25" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="Q26" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26" s="5" t="s">
+      <c r="U26" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q27" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q27" s="5" t="s">
+      <c r="U27" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q28" s="5" t="s">
+      <c r="U28" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:17" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="U29" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+      <c r="U31" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I32" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J32" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K32" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L32" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M32" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="N32" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P32" s="11" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="U32" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L33" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M33" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N33" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P33" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="U33" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L34" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N34" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P34" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="U34" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I36" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J36" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K36" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L36" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M36" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N36" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P36" s="11" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+      <c r="U36" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L37" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M37" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N37" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P37" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="U37" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J38" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="U38" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
+      <c r="M39" s="8"/>
+      <c r="U39" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E40" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J40" s="12" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="40" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+      <c r="U40" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J41" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="41" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+      <c r="U41" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E42" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J42" s="12" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+      <c r="U42" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J43" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
+      <c r="U43" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="U44" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U45" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G46" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I46" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J46" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K46" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L46" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M46" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="N46" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P46" s="11" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+      <c r="U46" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K47" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L47" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M47" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="N47" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="P46" s="5" t="s">
+      <c r="P47" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
+      <c r="U47" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J48" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="P48" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="12" t="s">
+      <c r="U48" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E49" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J49" s="12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
+      <c r="U49" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="12" t="s">
+      <c r="D50" s="8"/>
+      <c r="E50" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J50" s="12" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+      <c r="U50" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E51" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J51" s="12" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
+      <c r="U51" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E52" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="J51" s="12" t="s">
+      <c r="J52" s="12" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
+      <c r="U52" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E53" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J53" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="12" t="s">
+      <c r="U53" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+      <c r="U54" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U55" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
+    <row r="59" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
+    <row r="62" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
+    <row r="63" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:21" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="2:10" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
+    <row r="65" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
+    <row r="66" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
+    <row r="69" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="2:3" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2680,6 +3469,7 @@
     <row r="308" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="309" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="310" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2688,13 +3478,919 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Sistema tablas.xlsx
+++ b/Sistema tablas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="340">
   <si>
     <t>Alert</t>
   </si>
@@ -1033,6 +1033,9 @@
   </si>
   <si>
     <t>OBSERVER</t>
+  </si>
+  <si>
+    <t>DRAW IO</t>
   </si>
 </sst>
 </file>
@@ -3480,9 +3483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,6 +3537,9 @@
       <c r="H4" s="18" t="s">
         <v>328</v>
       </c>
+      <c r="J4" s="18" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3592,7 +3598,9 @@
       <c r="I6" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3621,7 +3629,9 @@
         <v>334</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3652,7 +3662,9 @@
       <c r="I8" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3712,7 +3724,9 @@
         <v>334</v>
       </c>
       <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3741,7 +3755,9 @@
         <v>334</v>
       </c>
       <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="J11" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3772,7 +3788,9 @@
       <c r="I12" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3801,7 +3819,9 @@
         <v>334</v>
       </c>
       <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3830,7 +3850,9 @@
         <v>334</v>
       </c>
       <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="J14" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3861,7 +3883,9 @@
       <c r="I15" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3890,7 +3914,9 @@
         <v>334</v>
       </c>
       <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3919,7 +3945,9 @@
         <v>334</v>
       </c>
       <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="J17" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3950,7 +3978,9 @@
       <c r="I18" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3979,7 +4009,9 @@
         <v>334</v>
       </c>
       <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="J19" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4008,7 +4040,9 @@
         <v>334</v>
       </c>
       <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="J20" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4039,7 +4073,9 @@
       <c r="I21" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4070,7 +4106,9 @@
       <c r="I22" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4101,7 +4139,9 @@
       <c r="I23" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4132,7 +4172,9 @@
       <c r="I24" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4163,7 +4205,9 @@
       <c r="I25" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J25" s="19"/>
+      <c r="J25" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4194,7 +4238,9 @@
       <c r="I26" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J26" s="19"/>
+      <c r="J26" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4223,7 +4269,9 @@
         <v>334</v>
       </c>
       <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="J27" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4252,7 +4300,9 @@
         <v>334</v>
       </c>
       <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="J28" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4281,7 +4331,9 @@
         <v>334</v>
       </c>
       <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="J29" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4310,7 +4362,9 @@
         <v>334</v>
       </c>
       <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="J30" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4339,7 +4393,9 @@
         <v>334</v>
       </c>
       <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="J31" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -4368,7 +4424,9 @@
         <v>334</v>
       </c>
       <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="J32" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K32" s="19"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">

--- a/Sistema tablas.xlsx
+++ b/Sistema tablas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="340">
   <si>
     <t>Alert</t>
   </si>
@@ -3483,9 +3483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J9" sqref="J9"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,7 +3567,9 @@
         <v>334</v>
       </c>
       <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3695,7 +3697,9 @@
       <c r="I9" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
